--- a/ReceptionProcam/ReceptionProcam/Template/DataInsertTemplate.xlsx
+++ b/ReceptionProcam/ReceptionProcam/Template/DataInsertTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t>GovIdNo</t>
   </si>
@@ -476,7 +476,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="P6" activeCellId="1" sqref="P7:Q7 P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,8 +594,8 @@
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
-        <v>24</v>
+      <c r="Q2">
+        <v>1</v>
       </c>
       <c r="R2" t="s">
         <v>23</v>
@@ -650,8 +650,8 @@
       <c r="P3">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
-        <v>24</v>
+      <c r="Q3">
+        <v>2</v>
       </c>
       <c r="R3" t="s">
         <v>23</v>
@@ -709,8 +709,8 @@
       <c r="P4">
         <v>1</v>
       </c>
-      <c r="Q4" t="s">
-        <v>24</v>
+      <c r="Q4">
+        <v>3</v>
       </c>
       <c r="R4" t="s">
         <v>23</v>
@@ -768,8 +768,8 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" t="s">
-        <v>24</v>
+      <c r="Q5">
+        <v>2</v>
       </c>
       <c r="R5" t="s">
         <v>23</v>
